--- a/scripts/CIUSS_TKFH_Diagnosis_2019_essai.xlsx
+++ b/scripts/CIUSS_TKFH_Diagnosis_2019_essai.xlsx
@@ -641,16 +641,16 @@
   <dimension ref="A1:K1201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.19"/>
